--- a/Double_Slit/LowInteensityBulbDoubleSlit.xlsx
+++ b/Double_Slit/LowInteensityBulbDoubleSlit.xlsx
@@ -629,33 +629,6 @@
                 <c:pt idx="150">
                   <c:v>8.5000000000000107</c:v>
                 </c:pt>
-                <c:pt idx="151">
-                  <c:v>8.5500000000000096</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>8.6000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>8.6500000000000092</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>8.7000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>8.7500000000000107</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>8.8000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>8.8500000000000103</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>8.9000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>8.9500000000000099</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1131,11 +1104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109968632"/>
-        <c:axId val="109971376"/>
+        <c:axId val="304107744"/>
+        <c:axId val="304112056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109968632"/>
+        <c:axId val="304107744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,12 +1165,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109971376"/>
+        <c:crossAx val="304112056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109971376"/>
+        <c:axId val="304112056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109968632"/>
+        <c:crossAx val="304107744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1863,16 +1836,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409937</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2157,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E98" zoomScale="69" workbookViewId="0">
-      <selection activeCell="O139" sqref="O139"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3381,51 +3354,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>8.5500000000000096</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154">
-        <v>8.6000000000000103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155">
-        <v>8.6500000000000092</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156">
-        <v>8.7000000000000099</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157">
-        <v>8.7500000000000107</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>8.8000000000000096</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159">
-        <v>8.8500000000000103</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>8.9000000000000092</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>8.9500000000000099</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
